--- a/va_facility_data_2025-02-20/Portsmouth VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Portsmouth%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Portsmouth VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Portsmouth%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rfce2de1991d14e33929ffec241b8fd4e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Raa6b4cf3155940b3bbd1ac702949d88d"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbc976d163ca7440b97234d2012b06a08"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ra98ca2ab792545d9b23562da2a2bec09"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc6596e0b08a34b64a6d56f9d5c993fbb"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf509ab73fd274dbd993b42acf05679a8"/>
   </x:sheets>
 </x:workbook>
 </file>
